--- a/public/ticketPrice.xlsx
+++ b/public/ticketPrice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\new\htdocs\utrance-railway\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xwapp\htdocs\utrance-railway\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Galle</t>
   </si>
@@ -35,63 +35,18 @@
     <t>Colombo</t>
   </si>
   <si>
-    <t>Welgama</t>
-  </si>
-  <si>
     <t>Ahangama</t>
   </si>
   <si>
-    <t>Habarduwa</t>
-  </si>
-  <si>
     <t>Ambalangoda</t>
   </si>
   <si>
     <t>Kaluthara</t>
   </si>
   <si>
-    <t>Ambalngoda</t>
-  </si>
-  <si>
     <t>Wadduwa</t>
   </si>
   <si>
-    <t xml:space="preserve"> vfc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vc </t>
-  </si>
-  <si>
-    <t>vfdv</t>
-  </si>
-  <si>
-    <t>dfv</t>
-  </si>
-  <si>
-    <t>fvdv</t>
-  </si>
-  <si>
-    <t>vrvrver</t>
-  </si>
-  <si>
-    <t>rvevvre</t>
-  </si>
-  <si>
-    <t>vevre</t>
-  </si>
-  <si>
-    <t>fdvervr</t>
-  </si>
-  <si>
-    <t>v fd vrev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fdrevre</t>
-  </si>
-  <si>
-    <t>fd vree</t>
-  </si>
-  <si>
     <t>Pandura</t>
   </si>
   <si>
@@ -101,17 +56,48 @@
     <t>Maradana</t>
   </si>
   <si>
-    <t>Ragama</t>
+    <t>Beliatta</t>
+  </si>
+  <si>
+    <t>Weligama</t>
+  </si>
+  <si>
+    <t>Kubalgama</t>
+  </si>
+  <si>
+    <t>Midigama</t>
+  </si>
+  <si>
+    <t>Koggala</t>
+  </si>
+  <si>
+    <t>Habaraduwa</t>
+  </si>
+  <si>
+    <t>Unawatuna</t>
+  </si>
+  <si>
+    <t>Katugoda</t>
+  </si>
+  <si>
+    <t>Thalpe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,8 +123,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,193 +418,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T18"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="4" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" customWidth="1"/>
+    <col min="18" max="18" width="7.21875" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B13">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+      <c r="G14">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B16">
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <v>130</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>110</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>80</v>
+      </c>
+      <c r="I16">
+        <v>70</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>140</v>
+      </c>
+      <c r="D17">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>110</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>70</v>
+      </c>
+      <c r="K17">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>140</v>
+      </c>
+      <c r="E18">
+        <v>130</v>
+      </c>
+      <c r="F18">
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <v>110</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+      <c r="J18">
+        <v>80</v>
+      </c>
+      <c r="K18">
+        <v>70</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <v>30</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>170</v>
+      </c>
+      <c r="C19">
+        <v>160</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>140</v>
+      </c>
+      <c r="F19">
+        <v>130</v>
+      </c>
+      <c r="G19">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>110</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>90</v>
+      </c>
+      <c r="K19">
+        <v>80</v>
+      </c>
+      <c r="L19">
+        <v>70</v>
+      </c>
+      <c r="M19">
+        <v>60</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <v>40</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>45</v>
-      </c>
-      <c r="D4">
-        <v>67</v>
-      </c>
-      <c r="E4">
-        <v>89</v>
-      </c>
-      <c r="F4">
+      <c r="B20">
+        <v>180</v>
+      </c>
+      <c r="C20">
+        <v>170</v>
+      </c>
+      <c r="D20">
+        <v>160</v>
+      </c>
+      <c r="E20">
+        <v>150</v>
+      </c>
+      <c r="F20">
+        <v>140</v>
+      </c>
+      <c r="G20">
+        <v>130</v>
+      </c>
+      <c r="H20">
+        <v>120</v>
+      </c>
+      <c r="I20">
+        <v>110</v>
+      </c>
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
         <v>90</v>
       </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>56</v>
-      </c>
-      <c r="C7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
+      <c r="L20">
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <v>70</v>
+      </c>
+      <c r="N20">
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <v>40</v>
+      </c>
+      <c r="Q20">
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/ticketPrice.xlsx
+++ b/public/ticketPrice.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Galle</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="T1" sqref="T1:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
     <col min="19" max="19" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" t="s">
         <v>10</v>
@@ -496,16 +496,13 @@
       <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -513,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -524,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -538,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -555,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -575,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -598,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -624,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -653,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -685,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -720,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -758,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -799,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -843,7 +840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>

--- a/public/ticketPrice.xlsx
+++ b/public/ticketPrice.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -421,7 +422,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T20"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/ticketPrice.xlsx
+++ b/public/ticketPrice.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -422,7 +421,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/ticketPrice.xlsx
+++ b/public/ticketPrice.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Galle</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Thalpe</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
   </si>
 </sst>
 </file>
@@ -418,216 +424,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" customWidth="1"/>
-    <col min="18" max="18" width="7.21875" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B1" s="5"/>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>70</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10">
         <v>70</v>
       </c>
@@ -650,13 +642,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>90</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11">
         <v>80</v>
       </c>
@@ -682,13 +672,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12">
         <v>90</v>
       </c>
@@ -717,13 +705,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>110</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13">
         <v>100</v>
       </c>
@@ -755,13 +741,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14">
         <v>110</v>
       </c>
@@ -796,13 +780,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>130</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15">
         <v>120</v>
       </c>
@@ -840,13 +822,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>140</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16">
         <v>130</v>
       </c>
@@ -887,13 +867,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>150</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17">
         <v>140</v>
       </c>
@@ -937,13 +915,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>160</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18">
         <v>150</v>
       </c>
@@ -990,13 +966,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>170</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19">
         <v>160</v>
       </c>
@@ -1046,13 +1020,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>180</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20">
         <v>170</v>
       </c>
@@ -1102,6 +1074,66 @@
         <v>20</v>
       </c>
       <c r="S20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21">
+        <v>180</v>
+      </c>
+      <c r="D21">
+        <v>170</v>
+      </c>
+      <c r="E21">
+        <v>160</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>140</v>
+      </c>
+      <c r="H21">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>120</v>
+      </c>
+      <c r="J21">
+        <v>110</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>90</v>
+      </c>
+      <c r="M21">
+        <v>80</v>
+      </c>
+      <c r="N21">
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <v>60</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21">
+        <v>40</v>
+      </c>
+      <c r="R21">
+        <v>30</v>
+      </c>
+      <c r="S21">
+        <v>20</v>
+      </c>
+      <c r="T21">
         <v>10</v>
       </c>
     </row>
